--- a/biology/Zoologie/Euchrepomis/Euchrepomis.xlsx
+++ b/biology/Zoologie/Euchrepomis/Euchrepomis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euchrepomis est un genre d'oiseaux Passeriformes de la famille des Thamnophilidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom combine les mots grecs anciens euchrōs « rougeâtre, bien teint » et epōmis « pointe de l'épaule ».
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (1 janvier 2024)[1], il comporte quatre espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (1 janvier 2024), il comporte quatre espèces :
 Euchrepomis hypocondria (Sclater, 1855) – Grisin à croupion roux
 Euchrepomis humelaris (Sclater &amp; Salvin, 1880) – Grisin à épaules rousses
 Euchrepomis sharpei (Berlepsch, 1901) – Grisin à croupion jaune
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euchrepomis Bravo (d), Remsen (d), Whitney (d) &amp; Brumfield (d), 2012[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euchrepomis Bravo (d), Remsen (d), Whitney (d) &amp; Brumfield (d), 2012.
 </t>
         </is>
       </c>
